--- a/medicine/Enfance/Martine_Sagaert/Martine_Sagaert.xlsx
+++ b/medicine/Enfance/Martine_Sagaert/Martine_Sagaert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Martine Sagaert, née le 28 octobre 1953 à Asnières-sur-Seine  (aujourd'hui dans les Hauts-de-Seine), est professeure, essayiste, biographe et auteure de littérature jeunesse.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Martine Sagaert est professeure émérite de littérature française des  XXe et XXIe siècles à l'université de Toulon.
 Elle a enseigné à l’Université de Bordeaux 3 (IUT des métiers du Livre). Elle a été membre de l'ITEM  — « Institut des Textes et Manuscrits moderne » CNRS./E.N.S,  dans l'équipe de recherche «Genèse et autobiographie, UMR 8132 ». Elle a dirigé la collection « Horizons génétiques » aux Presses Universitaires de Bordeaux.
 En 2010, elle sort, aux éditions la Treille muscate, son premier ouvrage de fiction à destination de la jeunesse : Péloulou, l'histoire d'un ours en peluche en quête d'amitié. Et en 2018, Burdi, l'histoire d'un autre petit ours.
-En 2016, elle a fait paraître chez Robert Laffont, avec Yvonne Knibiehler, Les Mots des mères, une analyse historique et littéraire avec une anthologie d'écrits de femmes de la fin de l'Ancien Régime à nos jours[1].
+En 2016, elle a fait paraître chez Robert Laffont, avec Yvonne Knibiehler, Les Mots des mères, une analyse historique et littéraire avec une anthologie d'écrits de femmes de la fin de l'Ancien Régime à nos jours.
 En 2022, elle a dirigé avec André-Alain Morello l'ouvrage "Silvia Baron Supervielle ou le voyage d'écrire" (Champion, "Babeliana")
 et, en 2023 elle a édité "Victoria Ocampo et André Gide" avec une préface de Silvia Baron Supervielle (Classiques Garnier).
 </t>
@@ -547,7 +561,9 @@
           <t>Domaines de recherches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Spécialiste de critique génétique et en particulier des œuvres d’André Gide, Paul Léautaud et Christiane Rochefort, elle est l’auteur d'une biographie de Paul Léautaud (La Manufacture, « Qui êtes vous ? », 1988).
 Sur André Gide, elle a consacré un portfolio (ADPF, 2002). Elle a édité la Correspondance André Gide – Charles-Louis Philippe (Centre d’Études gidiennes, 1995), le Journal 1926-1950 (Gallimard, « Bibliothèque de la Pléiade », 1997) et Ainsi soit-il ou les jeux sont faits d'André Gide (Gallimard, « L’Imaginaire », 2001). Elle a collaboré à l’édition de Souvenirs et voyages (Gallimard, « Bibliothèque de la Pléiade », 2001). Elle a signé avec Peter Schnyder l'ouvrage André Gide : l'écriture vive (PUB, 2009) et créé le site internet www.andre-gide.fr.
